--- a/public/docs/SNT_2nde/pages/pages_donnees/datas/fruits.xlsx
+++ b/public/docs/SNT_2nde/pages/pages_donnees/datas/fruits.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erictixidor/Documents/GitHub/hugo5/content/docs/SNT_2nde/pages/pages_donnees/datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FCCA7B-8720-8C4F-94E3-1444CE47142E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C57ABFD-B974-E848-98E0-15097AE3D617}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14860" yWindow="500" windowWidth="13940" windowHeight="16440" xr2:uid="{804898C7-58A2-A748-988D-51F01FA4A5AB}"/>
   </bookViews>
@@ -153,7 +153,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFB6EE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -170,14 +170,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -192,6 +193,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFB6EE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -503,7 +509,7 @@
   <dimension ref="A2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -519,6 +525,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="1"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">

--- a/public/docs/SNT_2nde/pages/pages_donnees/datas/fruits.xlsx
+++ b/public/docs/SNT_2nde/pages/pages_donnees/datas/fruits.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erictixidor/Documents/GitHub/hugo5/content/docs/SNT_2nde/pages/pages_donnees/datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C57ABFD-B974-E848-98E0-15097AE3D617}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086D427B-EE39-3A40-8AE7-88E7C128384A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14860" yWindow="500" windowWidth="13940" windowHeight="16440" xr2:uid="{804898C7-58A2-A748-988D-51F01FA4A5AB}"/>
+    <workbookView xWindow="3020" yWindow="500" windowWidth="25780" windowHeight="16440" xr2:uid="{804898C7-58A2-A748-988D-51F01FA4A5AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$2:$D$19</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,12 +28,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
   <si>
     <t>Ventes</t>
-  </si>
-  <si>
-    <t>Produits:</t>
   </si>
   <si>
     <t>Pommes</t>
@@ -100,7 +100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -117,14 +117,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="9"/>
       <name val="Calibri"/>
@@ -132,7 +124,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,18 +134,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFB6EE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -170,15 +150,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -210,7 +187,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -506,209 +483,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA4E40B-8014-714E-96C7-28B73438D7D6}">
-  <dimension ref="A2:I19"/>
+  <dimension ref="A2:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="3" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>1</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
       </c>
       <c r="D5">
         <v>6380</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>5619</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>4565</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>5323</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>4394</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>7195</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11">
         <v>5231</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12">
         <v>2427</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13">
         <v>4213</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <v>3239</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15">
         <v>6420</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>1310</v>
@@ -716,13 +683,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17">
         <v>6274</v>
@@ -730,13 +697,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18">
         <v>4894</v>
@@ -744,13 +711,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
         <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
       </c>
       <c r="D19">
         <v>7580</v>
